--- a/Pairwise.xlsx
+++ b/Pairwise.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c24b61eabbdac2de/Документы/обучение skillfactory/publish/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_38063D7A31C81DA46258DAB5F1D247297D581A2B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB5514A-DC3E-40D0-B3D6-2B9F7C1E6B86}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="4800" yWindow="708" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pairwise" sheetId="1" r:id="rId4"/>
+    <sheet name="Pairwise" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -80,23 +85,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -107,34 +104,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,27 +430,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A105" sqref="A105"/>
+      <selection pane="bottomRight" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -469,7 +472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -480,10 +483,10 @@
         <v>4532</v>
       </c>
       <c r="D3" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -497,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -511,7 +514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -525,7 +528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -536,10 +539,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -553,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -567,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1">
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -581,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1">
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -592,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -609,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1">
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -623,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -637,7 +640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1">
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -648,10 +651,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -665,7 +668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1">
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -679,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1">
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -693,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1">
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -704,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -721,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1">
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -735,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1">
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -749,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1">
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -760,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -777,7 +780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1">
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -788,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -805,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1">
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -816,10 +819,10 @@
         <v>12</v>
       </c>
       <c r="D27" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -833,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1">
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -847,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1">
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -861,7 +864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1">
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -872,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -889,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1">
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -903,7 +906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1">
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -917,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1">
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -931,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1">
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -945,7 +948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1">
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -959,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1">
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -973,7 +976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1">
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -984,10 +987,10 @@
         <v>4532</v>
       </c>
       <c r="D39" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1">
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1">
+    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1026,10 +1029,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="2" customFormat="1">
+    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1">
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1068,10 +1071,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="2" customFormat="1">
+    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1096,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1">
+    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1">
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1138,10 +1141,10 @@
         <v>7</v>
       </c>
       <c r="D50" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="2" customFormat="1">
+    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="2" customFormat="1">
+    <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1180,10 +1183,10 @@
         <v>10</v>
       </c>
       <c r="D53" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1">
+    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="2" customFormat="1">
+    <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="2" customFormat="1">
+    <row r="57" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="2" customFormat="1">
+    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1250,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="D58" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="2" customFormat="1">
+    <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="2" customFormat="1">
+    <row r="61" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1292,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="2" customFormat="1">
+    <row r="63" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1">
+    <row r="64" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1">
+    <row r="65" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1348,10 +1351,10 @@
         <v>13</v>
       </c>
       <c r="D65" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1">
+    <row r="67" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="2" customFormat="1">
+    <row r="68" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="2" customFormat="1">
+    <row r="69" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1">
+    <row r="70" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1">
+    <row r="71" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1">
+    <row r="72" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1">
+    <row r="73" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1460,10 +1463,10 @@
         <v>12</v>
       </c>
       <c r="D73" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1">
+    <row r="75" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1">
+    <row r="76" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1502,10 +1505,10 @@
         <v>4532</v>
       </c>
       <c r="D76" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1">
+    <row r="78" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1530,10 +1533,10 @@
         <v>8</v>
       </c>
       <c r="D78" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1">
+    <row r="80" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="2" customFormat="1">
+    <row r="81" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1572,10 +1575,10 @@
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1">
+    <row r="83" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1">
+    <row r="84" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1614,10 +1617,10 @@
         <v>4</v>
       </c>
       <c r="D84" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="2" customFormat="1">
+    <row r="86" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="2" customFormat="1">
+    <row r="87" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="2" customFormat="1">
+    <row r="88" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="2" customFormat="1">
+    <row r="89" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1684,10 +1687,10 @@
         <v>10</v>
       </c>
       <c r="D89" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="2" customFormat="1">
+    <row r="91" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="2" customFormat="1">
+    <row r="92" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1726,10 +1729,10 @@
         <v>13</v>
       </c>
       <c r="D92" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="2" customFormat="1">
+    <row r="94" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="2" customFormat="1">
+    <row r="95" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="2" customFormat="1">
+    <row r="96" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1782,10 +1785,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="2" customFormat="1">
+    <row r="98" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="2" customFormat="1">
+    <row r="99" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="2" customFormat="1">
+    <row r="100" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1838,10 +1841,10 @@
         <v>12</v>
       </c>
       <c r="D100" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="2" customFormat="1">
+    <row r="102" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="2" customFormat="1">
+    <row r="103" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="2" customFormat="1">
+    <row r="104" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -1894,10 +1897,10 @@
         <v>5</v>
       </c>
       <c r="D104" s="2">
-        <v>5.4637382726367E+17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="2" customFormat="1">
+        <v>5.4637382726367002E+17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="2" customFormat="1">
+    <row r="106" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -1925,18 +1928,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/Pairwise.xlsx
+++ b/Pairwise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c24b61eabbdac2de/Документы/обучение skillfactory/publish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_38063D7A31C81DA46258DAB5F1D247297D581A2B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB5514A-DC3E-40D0-B3D6-2B9F7C1E6B86}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_38063D7A31C81DA46258DAB5F1D247297D581A2B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC905347-C63C-400A-A56C-B95E931ABB15}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="708" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomRight" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,18 +1929,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" s="2">
-        <v>1</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="D107" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
